--- a/data/scheduling_DNN/predict/0.5/result26.xlsx
+++ b/data/scheduling_DNN/predict/0.5/result26.xlsx
@@ -570,10 +570,10 @@
         <v>1.038054943084717</v>
       </c>
       <c r="V2" t="n">
-        <v>0.9462730884552002</v>
+        <v>0.4043668806552887</v>
       </c>
       <c r="W2" t="n">
-        <v>0.008423908613622189</v>
+        <v>0.4015606045722961</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>1.005362033843994</v>
       </c>
       <c r="V3" t="n">
-        <v>0.6825827360153198</v>
+        <v>0.8685828447341919</v>
       </c>
       <c r="W3" t="n">
-        <v>0.104186475276947</v>
+        <v>0.01870854571461678</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.8896949291229248</v>
       </c>
       <c r="V4" t="n">
-        <v>0.4662931859493256</v>
+        <v>0.8977379202842712</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1792690306901932</v>
+        <v>6.468970968853682e-05</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.8672130107879639</v>
       </c>
       <c r="V5" t="n">
-        <v>0.5279086828231812</v>
+        <v>0.3972338140010834</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1151274293661118</v>
+        <v>0.2208804488182068</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.8661949634552002</v>
       </c>
       <c r="V6" t="n">
-        <v>0.6825956106185913</v>
+        <v>0.4097334146499634</v>
       </c>
       <c r="W6" t="n">
-        <v>0.03370872139930725</v>
+        <v>0.2083571404218674</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.8650298118591309</v>
       </c>
       <c r="V7" t="n">
-        <v>0.6446640491485596</v>
+        <v>0.872963011264801</v>
       </c>
       <c r="W7" t="n">
-        <v>0.04856107011437416</v>
+        <v>6.293565093073994e-05</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.8643310070037842</v>
       </c>
       <c r="V8" t="n">
-        <v>0.6540950536727905</v>
+        <v>0.4241370558738708</v>
       </c>
       <c r="W8" t="n">
-        <v>0.04419915750622749</v>
+        <v>0.1937707215547562</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.872783899307251</v>
       </c>
       <c r="V9" t="n">
-        <v>0.5416070222854614</v>
+        <v>0.3992471098899841</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1096781268715858</v>
+        <v>0.2242370843887329</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.8697309494018555</v>
       </c>
       <c r="V10" t="n">
-        <v>0.5373797416687012</v>
+        <v>0.8720299005508423</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1104573234915733</v>
+        <v>5.285176484903786e-06</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.8710019588470459</v>
       </c>
       <c r="V11" t="n">
-        <v>0.3874495327472687</v>
+        <v>0.8749691843986511</v>
       </c>
       <c r="W11" t="n">
-        <v>0.2338229417800903</v>
+        <v>1.573887857375666e-05</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.859788179397583</v>
       </c>
       <c r="V12" t="n">
-        <v>0.3507856726646423</v>
+        <v>0.4098313450813293</v>
       </c>
       <c r="W12" t="n">
-        <v>0.2590835392475128</v>
+        <v>0.2024611532688141</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.9174680709838867</v>
       </c>
       <c r="V13" t="n">
-        <v>0.4506650269031525</v>
+        <v>0.3972448110580444</v>
       </c>
       <c r="W13" t="n">
-        <v>0.2179050892591476</v>
+        <v>0.2706322371959686</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.8719279766082764</v>
       </c>
       <c r="V14" t="n">
-        <v>0.5885621309280396</v>
+        <v>0.3972301483154297</v>
       </c>
       <c r="W14" t="n">
-        <v>0.08029620349407196</v>
+        <v>0.225338026881218</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.8938601016998291</v>
       </c>
       <c r="V15" t="n">
-        <v>0.6528611183166504</v>
+        <v>0.5160155892372131</v>
       </c>
       <c r="W15" t="n">
-        <v>0.05808050930500031</v>
+        <v>0.1427664756774902</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.8811089992523193</v>
       </c>
       <c r="V16" t="n">
-        <v>0.5140033960342407</v>
+        <v>0.4044770896434784</v>
       </c>
       <c r="W16" t="n">
-        <v>0.1347665190696716</v>
+        <v>0.2271779775619507</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.9653270244598389</v>
       </c>
       <c r="V17" t="n">
-        <v>0.6825381517410278</v>
+        <v>0.8726524710655212</v>
       </c>
       <c r="W17" t="n">
-        <v>0.07996954768896103</v>
+        <v>0.008588572964072227</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8880939483642578</v>
       </c>
       <c r="V18" t="n">
-        <v>0.4484338760375977</v>
+        <v>0.8712620735168457</v>
       </c>
       <c r="W18" t="n">
-        <v>0.1933009773492813</v>
+        <v>0.0002833120233844966</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.9049811363220215</v>
       </c>
       <c r="V19" t="n">
-        <v>0.8036208152770996</v>
+        <v>0.4033064246177673</v>
       </c>
       <c r="W19" t="n">
-        <v>0.01027391478419304</v>
+        <v>0.2516775131225586</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.8870100975036621</v>
       </c>
       <c r="V20" t="n">
-        <v>0.5760998725891113</v>
+        <v>0.862470805644989</v>
       </c>
       <c r="W20" t="n">
-        <v>0.0966651663184166</v>
+        <v>0.0006021768203936517</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.9321691989898682</v>
       </c>
       <c r="V21" t="n">
-        <v>0.4505521655082703</v>
+        <v>0.8740562796592712</v>
       </c>
       <c r="W21" t="n">
-        <v>0.231954962015152</v>
+        <v>0.003377111395820975</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5311059951782227</v>
       </c>
       <c r="V22" t="n">
-        <v>0.350454181432724</v>
+        <v>0.5077226758003235</v>
       </c>
       <c r="W22" t="n">
-        <v>0.03263507783412933</v>
+        <v>0.0005467795999720693</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5254261493682861</v>
       </c>
       <c r="V23" t="n">
-        <v>0.4778375327587128</v>
+        <v>0.3972542285919189</v>
       </c>
       <c r="W23" t="n">
-        <v>0.002264676382765174</v>
+        <v>0.01642804220318794</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5233919620513916</v>
       </c>
       <c r="V24" t="n">
-        <v>0.5145288705825806</v>
+        <v>0.4931673407554626</v>
       </c>
       <c r="W24" t="n">
-        <v>7.855438889237121e-05</v>
+        <v>0.0009135277359746397</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5329890251159668</v>
       </c>
       <c r="V25" t="n">
-        <v>0.6434158086776733</v>
+        <v>0.4930240213871002</v>
       </c>
       <c r="W25" t="n">
-        <v>0.01219407469034195</v>
+        <v>0.001597201568074524</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5776100158691406</v>
       </c>
       <c r="V26" t="n">
-        <v>0.4036531448364258</v>
+        <v>0.8758636116981506</v>
       </c>
       <c r="W26" t="n">
-        <v>0.03026099316775799</v>
+        <v>0.08895520865917206</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5196490287780762</v>
       </c>
       <c r="V27" t="n">
-        <v>0.5344407558441162</v>
+        <v>0.8690030574798584</v>
       </c>
       <c r="W27" t="n">
-        <v>0.0002187951904488727</v>
+        <v>0.1220482364296913</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5191922187805176</v>
       </c>
       <c r="V28" t="n">
-        <v>0.5027711391448975</v>
+        <v>0.411928653717041</v>
       </c>
       <c r="W28" t="n">
-        <v>0.000269651849521324</v>
+        <v>0.01150547247380018</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5221049785614014</v>
       </c>
       <c r="V29" t="n">
-        <v>0.6002374887466431</v>
+        <v>0.5162326097488403</v>
       </c>
       <c r="W29" t="n">
-        <v>0.006104689091444016</v>
+        <v>3.448471397859976e-05</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.536506175994873</v>
       </c>
       <c r="V30" t="n">
-        <v>0.6720672845840454</v>
+        <v>0.4023051857948303</v>
       </c>
       <c r="W30" t="n">
-        <v>0.01837681420147419</v>
+        <v>0.01800990663468838</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5156848430633545</v>
       </c>
       <c r="V31" t="n">
-        <v>0.6617556810379028</v>
+        <v>0.4045688509941101</v>
       </c>
       <c r="W31" t="n">
-        <v>0.02133668959140778</v>
+        <v>0.01234676409512758</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.5538492202758789</v>
       </c>
       <c r="V32" t="n">
-        <v>0.4033632874488831</v>
+        <v>0.4044281840324402</v>
       </c>
       <c r="W32" t="n">
-        <v>0.02264601550996304</v>
+        <v>0.0223266463726759</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5185189247131348</v>
       </c>
       <c r="V33" t="n">
-        <v>0.5032491683959961</v>
+        <v>0.4884806275367737</v>
       </c>
       <c r="W33" t="n">
-        <v>0.0002331654541194439</v>
+        <v>0.0009022993035614491</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5180239677429199</v>
       </c>
       <c r="V34" t="n">
-        <v>0.8158285617828369</v>
+        <v>0.4240190982818604</v>
       </c>
       <c r="W34" t="n">
-        <v>0.08868757635354996</v>
+        <v>0.008836915716528893</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5295071601867676</v>
       </c>
       <c r="V35" t="n">
-        <v>0.4662267863750458</v>
+        <v>0.4960144460201263</v>
       </c>
       <c r="W35" t="n">
-        <v>0.004004405811429024</v>
+        <v>0.00112176185939461</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5413119792938232</v>
       </c>
       <c r="V36" t="n">
-        <v>0.4036241471767426</v>
+        <v>0.3977266848087311</v>
       </c>
       <c r="W36" t="n">
-        <v>0.01895793899893761</v>
+        <v>0.02061673626303673</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5806999206542969</v>
       </c>
       <c r="V37" t="n">
-        <v>0.6564396619796753</v>
+        <v>0.8716778159141541</v>
       </c>
       <c r="W37" t="n">
-        <v>0.005736508406698704</v>
+        <v>0.08466813713312149</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.530972957611084</v>
       </c>
       <c r="V38" t="n">
-        <v>0.6834505796432495</v>
+        <v>0.4941284656524658</v>
       </c>
       <c r="W38" t="n">
-        <v>0.02324942499399185</v>
+        <v>0.001357516623102129</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5232861042022705</v>
       </c>
       <c r="V39" t="n">
-        <v>0.5615758895874023</v>
+        <v>0.5162159204483032</v>
       </c>
       <c r="W39" t="n">
-        <v>0.001466107671149075</v>
+        <v>4.998749864171259e-05</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5136921405792236</v>
       </c>
       <c r="V40" t="n">
-        <v>0.6420724391937256</v>
+        <v>0.8681991100311279</v>
       </c>
       <c r="W40" t="n">
-        <v>0.01648150198161602</v>
+        <v>0.1256751865148544</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5196199417114258</v>
       </c>
       <c r="V41" t="n">
-        <v>0.6548312902450562</v>
+        <v>0.397220104932785</v>
       </c>
       <c r="W41" t="n">
-        <v>0.01828210800886154</v>
+        <v>0.01498171966522932</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.4109408855438232</v>
       </c>
       <c r="V42" t="n">
-        <v>0.656647801399231</v>
+        <v>0.4880503714084625</v>
       </c>
       <c r="W42" t="n">
-        <v>0.06037188693881035</v>
+        <v>0.005945872981101274</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4230740070343018</v>
       </c>
       <c r="V43" t="n">
-        <v>0.6563405990600586</v>
+        <v>0.4033770263195038</v>
       </c>
       <c r="W43" t="n">
-        <v>0.05441330373287201</v>
+        <v>0.000387971056625247</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3879730701446533</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4035847187042236</v>
+        <v>0.4031825661659241</v>
       </c>
       <c r="W44" t="n">
-        <v>0.000243723567109555</v>
+        <v>0.0002313287695869803</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.3914089202880859</v>
       </c>
       <c r="V45" t="n">
-        <v>0.9424769878387451</v>
+        <v>0.4993016123771667</v>
       </c>
       <c r="W45" t="n">
-        <v>0.3036760091781616</v>
+        <v>0.01164083275943995</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.38749098777771</v>
       </c>
       <c r="V46" t="n">
-        <v>0.6825853586196899</v>
+        <v>0.4312720596790314</v>
       </c>
       <c r="W46" t="n">
-        <v>0.0870806872844696</v>
+        <v>0.001916782232001424</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.4112300872802734</v>
       </c>
       <c r="V47" t="n">
-        <v>0.4781670570373535</v>
+        <v>0.4032766819000244</v>
       </c>
       <c r="W47" t="n">
-        <v>0.004480557981878519</v>
+        <v>6.32566589047201e-05</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.3883669376373291</v>
       </c>
       <c r="V48" t="n">
-        <v>0.4033569991588593</v>
+        <v>0.399235725402832</v>
       </c>
       <c r="W48" t="n">
-        <v>0.0002247019438073039</v>
+        <v>0.0001181305487989448</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.3907198905944824</v>
       </c>
       <c r="V49" t="n">
-        <v>0.8140085935592651</v>
+        <v>0.5077764391899109</v>
       </c>
       <c r="W49" t="n">
-        <v>0.1791733205318451</v>
+        <v>0.01370223518460989</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3894729614257812</v>
       </c>
       <c r="V50" t="n">
-        <v>0.4036816954612732</v>
+        <v>0.4928046762943268</v>
       </c>
       <c r="W50" t="n">
-        <v>0.0002018881205003709</v>
+        <v>0.01067744288593531</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.394287109375</v>
       </c>
       <c r="V51" t="n">
-        <v>0.534324586391449</v>
+        <v>0.8972179293632507</v>
       </c>
       <c r="W51" t="n">
-        <v>0.01961049437522888</v>
+        <v>0.2529394030570984</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.3914408683776855</v>
       </c>
       <c r="V52" t="n">
-        <v>0.3796856999397278</v>
+        <v>0.8992778062820435</v>
       </c>
       <c r="W52" t="n">
-        <v>0.0001381839829264209</v>
+        <v>0.257898360490799</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.388200044631958</v>
       </c>
       <c r="V53" t="n">
-        <v>0.3750417828559875</v>
+        <v>0.3972613513469696</v>
       </c>
       <c r="W53" t="n">
-        <v>0.0001731398515403271</v>
+        <v>8.210728265112266e-05</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3909101486206055</v>
       </c>
       <c r="V54" t="n">
-        <v>0.65655517578125</v>
+        <v>0.8633947968482971</v>
       </c>
       <c r="W54" t="n">
-        <v>0.07056728005409241</v>
+        <v>0.2232417464256287</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.4127328395843506</v>
       </c>
       <c r="V55" t="n">
-        <v>0.5346115231513977</v>
+        <v>0.4225696921348572</v>
       </c>
       <c r="W55" t="n">
-        <v>0.01485441345721483</v>
+        <v>9.676366607891396e-05</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3881230354309082</v>
       </c>
       <c r="V56" t="n">
-        <v>0.5038816928863525</v>
+        <v>0.4903503656387329</v>
       </c>
       <c r="W56" t="n">
-        <v>0.01340006664395332</v>
+        <v>0.01045042742043734</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3881998062133789</v>
       </c>
       <c r="V57" t="n">
-        <v>0.5413764715194702</v>
+        <v>0.5071910619735718</v>
       </c>
       <c r="W57" t="n">
-        <v>0.02346309088170528</v>
+        <v>0.01415891852229834</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.3889720439910889</v>
       </c>
       <c r="V58" t="n">
-        <v>0.8052781820297241</v>
+        <v>0.492980033159256</v>
       </c>
       <c r="W58" t="n">
-        <v>0.1733108013868332</v>
+        <v>0.01081766188144684</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3899860382080078</v>
       </c>
       <c r="V59" t="n">
-        <v>0.5411652326583862</v>
+        <v>0.8682457804679871</v>
       </c>
       <c r="W59" t="n">
-        <v>0.02285514958202839</v>
+        <v>0.2287323772907257</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3852028846740723</v>
       </c>
       <c r="V60" t="n">
-        <v>0.3753827512264252</v>
+        <v>0.5081645250320435</v>
       </c>
       <c r="W60" t="n">
-        <v>9.643501834943891e-05</v>
+        <v>0.01511956471949816</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.4450869560241699</v>
       </c>
       <c r="V61" t="n">
-        <v>0.5887774229049683</v>
+        <v>0.4233725965023041</v>
       </c>
       <c r="W61" t="n">
-        <v>0.0206469502300024</v>
+        <v>0.0004715133982244879</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.8725321292877197</v>
       </c>
       <c r="V62" t="n">
-        <v>0.3706989288330078</v>
+        <v>0.8848517537117004</v>
       </c>
       <c r="W62" t="n">
-        <v>0.2518365681171417</v>
+        <v>0.000151773143443279</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.8704440593719482</v>
       </c>
       <c r="V63" t="n">
-        <v>0.3507837355136871</v>
+        <v>0.4228723049163818</v>
       </c>
       <c r="W63" t="n">
-        <v>0.2700468897819519</v>
+        <v>0.2003204822540283</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8643620014190674</v>
       </c>
       <c r="V64" t="n">
-        <v>0.3753085136413574</v>
+        <v>0.5161536931991577</v>
       </c>
       <c r="W64" t="n">
-        <v>0.2391733080148697</v>
+        <v>0.1212490275502205</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.9168641567230225</v>
       </c>
       <c r="V65" t="n">
-        <v>0.514431357383728</v>
+        <v>0.8804865479469299</v>
       </c>
       <c r="W65" t="n">
-        <v>0.1619521528482437</v>
+        <v>0.001323330448940396</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.8650810718536377</v>
       </c>
       <c r="V66" t="n">
-        <v>0.944080114364624</v>
+        <v>0.4926993548870087</v>
       </c>
       <c r="W66" t="n">
-        <v>0.006240848917514086</v>
+        <v>0.1386681497097015</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8593599796295166</v>
       </c>
       <c r="V67" t="n">
-        <v>0.3507773280143738</v>
+        <v>0.4931174218654633</v>
       </c>
       <c r="W67" t="n">
-        <v>0.2586563229560852</v>
+        <v>0.1341336071491241</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.867455005645752</v>
       </c>
       <c r="V68" t="n">
-        <v>0.6983728408813477</v>
+        <v>0.496193528175354</v>
       </c>
       <c r="W68" t="n">
-        <v>0.02858877927064896</v>
+        <v>0.1378350853919983</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.9173638820648193</v>
       </c>
       <c r="V69" t="n">
-        <v>0.9425735473632812</v>
+        <v>0.8725256323814392</v>
       </c>
       <c r="W69" t="n">
-        <v>0.0006355272489599884</v>
+        <v>0.002010468626394868</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8599610328674316</v>
       </c>
       <c r="V70" t="n">
-        <v>0.6972826719284058</v>
+        <v>0.3972551822662354</v>
       </c>
       <c r="W70" t="n">
-        <v>0.02646424993872643</v>
+        <v>0.2140967100858688</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.8620281219482422</v>
       </c>
       <c r="V71" t="n">
-        <v>0.5373688936233521</v>
+        <v>0.4963714480400085</v>
       </c>
       <c r="W71" t="n">
-        <v>0.1054036170244217</v>
+        <v>0.1337047964334488</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8656129837036133</v>
       </c>
       <c r="V72" t="n">
-        <v>0.3507879376411438</v>
+        <v>0.514552116394043</v>
       </c>
       <c r="W72" t="n">
-        <v>0.2650448381900787</v>
+        <v>0.1232437342405319</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.9109210968017578</v>
       </c>
       <c r="V73" t="n">
-        <v>0.7829492092132568</v>
+        <v>0.5159038305282593</v>
       </c>
       <c r="W73" t="n">
-        <v>0.0163768045604229</v>
+        <v>0.1560386419296265</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8684518337249756</v>
       </c>
       <c r="V74" t="n">
-        <v>0.5136516690254211</v>
+        <v>0.8864100575447083</v>
       </c>
       <c r="W74" t="n">
-        <v>0.125883162021637</v>
+        <v>0.0003224977990612388</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8619759082794189</v>
       </c>
       <c r="V75" t="n">
-        <v>0.7837048768997192</v>
+        <v>0.8624654412269592</v>
       </c>
       <c r="W75" t="n">
-        <v>0.006126354448497295</v>
+        <v>2.39642503174764e-07</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8704941272735596</v>
       </c>
       <c r="V76" t="n">
-        <v>0.6567727327346802</v>
+        <v>0.4034671783447266</v>
       </c>
       <c r="W76" t="n">
-        <v>0.04567683488130569</v>
+        <v>0.2181141674518585</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.9223849773406982</v>
       </c>
       <c r="V77" t="n">
-        <v>0.4505667388439178</v>
+        <v>0.4947408437728882</v>
       </c>
       <c r="W77" t="n">
-        <v>0.2226124554872513</v>
+        <v>0.1828795075416565</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8620650768280029</v>
       </c>
       <c r="V78" t="n">
-        <v>0.6413167715072632</v>
+        <v>0.5161644816398621</v>
       </c>
       <c r="W78" t="n">
-        <v>0.04872981458902359</v>
+        <v>0.1196472197771072</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.8583550453186035</v>
       </c>
       <c r="V79" t="n">
-        <v>0.54131019115448</v>
+        <v>0.8987113237380981</v>
       </c>
       <c r="W79" t="n">
-        <v>0.1005174368619919</v>
+        <v>0.001628629164770246</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.8574569225311279</v>
       </c>
       <c r="V80" t="n">
-        <v>0.4085472524166107</v>
+        <v>0.8677022457122803</v>
       </c>
       <c r="W80" t="n">
-        <v>0.2015198916196823</v>
+        <v>0.0001049666461767629</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.909649133682251</v>
       </c>
       <c r="V81" t="n">
-        <v>0.8103859424591064</v>
+        <v>0.3972404301166534</v>
       </c>
       <c r="W81" t="n">
-        <v>0.009853181429207325</v>
+        <v>0.2625627219676971</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5617918968200684</v>
       </c>
       <c r="V82" t="n">
-        <v>0.4035879671573639</v>
+        <v>0.4102253913879395</v>
       </c>
       <c r="W82" t="n">
-        <v>0.02502848394215107</v>
+        <v>0.02297240495681763</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5696160793304443</v>
       </c>
       <c r="V83" t="n">
-        <v>0.4035959541797638</v>
+        <v>0.5092863440513611</v>
       </c>
       <c r="W83" t="n">
-        <v>0.02756268158555031</v>
+        <v>0.003639677073806524</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5143921375274658</v>
       </c>
       <c r="V84" t="n">
-        <v>0.5416277647018433</v>
+        <v>0.8959975242614746</v>
       </c>
       <c r="W84" t="n">
-        <v>0.0007417793967761099</v>
+        <v>0.1456226706504822</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5340540409088135</v>
       </c>
       <c r="V85" t="n">
-        <v>0.3507807850837708</v>
+        <v>0.5152609348297119</v>
       </c>
       <c r="W85" t="n">
-        <v>0.03358908742666245</v>
+        <v>0.0003531808324623853</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5678441524505615</v>
       </c>
       <c r="V86" t="n">
-        <v>0.5043676495552063</v>
+        <v>0.4239790439605713</v>
       </c>
       <c r="W86" t="n">
-        <v>0.004029266536235809</v>
+        <v>0.02069716900587082</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5165019035339355</v>
       </c>
       <c r="V87" t="n">
-        <v>0.6525709629058838</v>
+        <v>0.8972737193107605</v>
       </c>
       <c r="W87" t="n">
-        <v>0.01851478964090347</v>
+        <v>0.1449871808290482</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5155718326568604</v>
       </c>
       <c r="V88" t="n">
-        <v>0.6528067588806152</v>
+        <v>0.8743682503700256</v>
       </c>
       <c r="W88" t="n">
-        <v>0.01883342489600182</v>
+        <v>0.1287348717451096</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5178980827331543</v>
       </c>
       <c r="V89" t="n">
-        <v>0.6549818515777588</v>
+        <v>0.5163785219192505</v>
       </c>
       <c r="W89" t="n">
-        <v>0.01879196055233479</v>
+        <v>2.309065166627988e-06</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5153250694274902</v>
       </c>
       <c r="V90" t="n">
-        <v>0.4036053717136383</v>
+        <v>0.8655105233192444</v>
       </c>
       <c r="W90" t="n">
-        <v>0.01248129084706306</v>
+        <v>0.122629851102829</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5193648338317871</v>
       </c>
       <c r="V91" t="n">
-        <v>0.3761706054210663</v>
+        <v>0.868575394153595</v>
       </c>
       <c r="W91" t="n">
-        <v>0.02050458639860153</v>
+        <v>0.1219480186700821</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.519636869430542</v>
       </c>
       <c r="V92" t="n">
-        <v>0.5137795209884644</v>
+        <v>0.871418297290802</v>
       </c>
       <c r="W92" t="n">
-        <v>3.430853030295111e-05</v>
+        <v>0.1237501725554466</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5147991180419922</v>
       </c>
       <c r="V93" t="n">
-        <v>0.7829432487487793</v>
+        <v>0.8682461380958557</v>
       </c>
       <c r="W93" t="n">
-        <v>0.07190127670764923</v>
+        <v>0.1249247938394547</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5171439647674561</v>
       </c>
       <c r="V94" t="n">
-        <v>0.5145039558410645</v>
+        <v>0.8626585602760315</v>
       </c>
       <c r="W94" t="n">
-        <v>6.969647074583918e-06</v>
+        <v>0.1193803325295448</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5130758285522461</v>
       </c>
       <c r="V95" t="n">
-        <v>0.8088934421539307</v>
+        <v>0.8618397116661072</v>
       </c>
       <c r="W95" t="n">
-        <v>0.08750806003808975</v>
+        <v>0.1216362491250038</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5142250061035156</v>
       </c>
       <c r="V96" t="n">
-        <v>0.3507823050022125</v>
+        <v>0.4965405166149139</v>
       </c>
       <c r="W96" t="n">
-        <v>0.02671351656317711</v>
+        <v>0.0003127411764580756</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5669159889221191</v>
       </c>
       <c r="V97" t="n">
-        <v>0.8084061145782471</v>
+        <v>0.5078158378601074</v>
       </c>
       <c r="W97" t="n">
-        <v>0.05831748247146606</v>
+        <v>0.003492827760055661</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.530346155166626</v>
       </c>
       <c r="V98" t="n">
-        <v>0.8000744581222534</v>
+        <v>0.4045122265815735</v>
       </c>
       <c r="W98" t="n">
-        <v>0.07275335490703583</v>
+        <v>0.01583417691290379</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5177829265594482</v>
       </c>
       <c r="V99" t="n">
-        <v>0.5298932790756226</v>
+        <v>0.4032930135726929</v>
       </c>
       <c r="W99" t="n">
-        <v>0.0001466606336180121</v>
+        <v>0.01310794055461884</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5152218341827393</v>
       </c>
       <c r="V100" t="n">
-        <v>0.7828766107559204</v>
+        <v>0.8977813124656677</v>
       </c>
       <c r="W100" t="n">
-        <v>0.07163907587528229</v>
+        <v>0.1463517546653748</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.515596866607666</v>
       </c>
       <c r="V101" t="n">
-        <v>0.4992532730102539</v>
+        <v>0.8749996423721313</v>
       </c>
       <c r="W101" t="n">
-        <v>0.0002671130641829222</v>
+        <v>0.1291703581809998</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.401155948638916</v>
       </c>
       <c r="V102" t="n">
-        <v>0.5768920183181763</v>
+        <v>0.5049324035644531</v>
       </c>
       <c r="W102" t="n">
-        <v>0.03088316693902016</v>
+        <v>0.01076955255120993</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.3949530124664307</v>
       </c>
       <c r="V103" t="n">
-        <v>0.5143253803253174</v>
+        <v>0.8916845321655273</v>
       </c>
       <c r="W103" t="n">
-        <v>0.01424976252019405</v>
+        <v>0.2467422038316727</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.4156339168548584</v>
       </c>
       <c r="V104" t="n">
-        <v>0.6548517942428589</v>
+        <v>0.4034497141838074</v>
       </c>
       <c r="W104" t="n">
-        <v>0.05722519382834435</v>
+        <v>0.0001484547974541783</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4135589599609375</v>
       </c>
       <c r="V105" t="n">
-        <v>0.5039169788360596</v>
+        <v>0.4966858625411987</v>
       </c>
       <c r="W105" t="n">
-        <v>0.008164571598172188</v>
+        <v>0.006910081952810287</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3867590427398682</v>
       </c>
       <c r="V106" t="n">
-        <v>0.6413520574569702</v>
+        <v>0.540271520614624</v>
       </c>
       <c r="W106" t="n">
-        <v>0.06481759995222092</v>
+        <v>0.02356608025729656</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3844408988952637</v>
       </c>
       <c r="V107" t="n">
-        <v>0.6548995971679688</v>
+        <v>0.8967721462249756</v>
       </c>
       <c r="W107" t="n">
-        <v>0.07314790785312653</v>
+        <v>0.2624832987785339</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3857021331787109</v>
       </c>
       <c r="V108" t="n">
-        <v>0.5049394369125366</v>
+        <v>0.8616057634353638</v>
       </c>
       <c r="W108" t="n">
-        <v>0.01421753503382206</v>
+        <v>0.2264842689037323</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3960518836975098</v>
       </c>
       <c r="V109" t="n">
-        <v>0.9478704929351807</v>
+        <v>0.4240041077136993</v>
       </c>
       <c r="W109" t="n">
-        <v>0.3045037686824799</v>
+        <v>0.000781326845753938</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.3882601261138916</v>
       </c>
       <c r="V110" t="n">
-        <v>0.3523913621902466</v>
+        <v>0.5003700852394104</v>
       </c>
       <c r="W110" t="n">
-        <v>0.001286568236537278</v>
+        <v>0.01256864331662655</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3904581069946289</v>
       </c>
       <c r="V111" t="n">
-        <v>0.5374541282653809</v>
+        <v>0.8972019553184509</v>
       </c>
       <c r="W111" t="n">
-        <v>0.02160783112049103</v>
+        <v>0.2567893266677856</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.4048671722412109</v>
       </c>
       <c r="V112" t="n">
-        <v>0.4035981297492981</v>
+        <v>0.5160993337631226</v>
       </c>
       <c r="W112" t="n">
-        <v>1.610468871149351e-06</v>
+        <v>0.01237259339541197</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3904800415039062</v>
       </c>
       <c r="V113" t="n">
-        <v>0.3507795631885529</v>
+        <v>0.4966967105865479</v>
       </c>
       <c r="W113" t="n">
-        <v>0.001576127950102091</v>
+        <v>0.01128198113292456</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.3906159400939941</v>
       </c>
       <c r="V114" t="n">
-        <v>0.6432181596755981</v>
+        <v>0.4231853187084198</v>
       </c>
       <c r="W114" t="n">
-        <v>0.06380788236856461</v>
+        <v>0.001060764421708882</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.4446060657501221</v>
       </c>
       <c r="V115" t="n">
-        <v>0.5043106079101562</v>
+        <v>0.8830508589744568</v>
       </c>
       <c r="W115" t="n">
-        <v>0.003564632264897227</v>
+        <v>0.1922338306903839</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3892958164215088</v>
       </c>
       <c r="V116" t="n">
-        <v>0.5015835762023926</v>
+        <v>0.8755654692649841</v>
       </c>
       <c r="W116" t="n">
-        <v>0.01260854117572308</v>
+        <v>0.2364581823348999</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3912420272827148</v>
       </c>
       <c r="V117" t="n">
-        <v>0.6722632646560669</v>
+        <v>0.3992407917976379</v>
       </c>
       <c r="W117" t="n">
-        <v>0.07897293567657471</v>
+        <v>6.39802310615778e-05</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.394881010055542</v>
       </c>
       <c r="V118" t="n">
-        <v>0.5139063596725464</v>
+        <v>0.4950965046882629</v>
       </c>
       <c r="W118" t="n">
-        <v>0.01416703406721354</v>
+        <v>0.01004314515739679</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3863229751586914</v>
       </c>
       <c r="V119" t="n">
-        <v>0.3507833182811737</v>
+        <v>0.4971371591091156</v>
       </c>
       <c r="W119" t="n">
-        <v>0.001263067242689431</v>
+        <v>0.01227978337556124</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.4008159637451172</v>
       </c>
       <c r="V120" t="n">
-        <v>0.6425178050994873</v>
+        <v>0.8815561532974243</v>
       </c>
       <c r="W120" t="n">
-        <v>0.05841977894306183</v>
+        <v>0.2311111241579056</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.436133861541748</v>
       </c>
       <c r="V121" t="n">
-        <v>0.6567997932434082</v>
+        <v>0.5162481069564819</v>
       </c>
       <c r="W121" t="n">
-        <v>0.0486934520304203</v>
+        <v>0.006418292410671711</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8765430450439453</v>
       </c>
       <c r="V122" t="n">
-        <v>0.5371123552322388</v>
+        <v>0.4033247530460358</v>
       </c>
       <c r="W122" t="n">
-        <v>0.1152131929993629</v>
+        <v>0.2239355444908142</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.9348001480102539</v>
       </c>
       <c r="V123" t="n">
-        <v>0.7831968069076538</v>
+        <v>0.862750232219696</v>
       </c>
       <c r="W123" t="n">
-        <v>0.02298357337713242</v>
+        <v>0.005191190168261528</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.8809471130371094</v>
       </c>
       <c r="V124" t="n">
-        <v>0.4036197066307068</v>
+        <v>0.3975123167037964</v>
       </c>
       <c r="W124" t="n">
-        <v>0.2278414517641068</v>
+        <v>0.2337092012166977</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.9351129531860352</v>
       </c>
       <c r="V125" t="n">
-        <v>0.504324197769165</v>
+        <v>0.861492931842804</v>
       </c>
       <c r="W125" t="n">
-        <v>0.1855789572000504</v>
+        <v>0.005419907625764608</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.889458179473877</v>
       </c>
       <c r="V126" t="n">
-        <v>0.6975404024124146</v>
+        <v>0.4249894022941589</v>
       </c>
       <c r="W126" t="n">
-        <v>0.03683243319392204</v>
+        <v>0.2157312482595444</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.8697690963745117</v>
       </c>
       <c r="V127" t="n">
-        <v>0.7820807695388794</v>
+        <v>0.4059585630893707</v>
       </c>
       <c r="W127" t="n">
-        <v>0.007689242716878653</v>
+        <v>0.2151202112436295</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.8719301223754883</v>
       </c>
       <c r="V128" t="n">
-        <v>0.5279320478439331</v>
+        <v>0.4043863415718079</v>
       </c>
       <c r="W128" t="n">
-        <v>0.118334673345089</v>
+        <v>0.2185971885919571</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.9257850646972656</v>
       </c>
       <c r="V129" t="n">
-        <v>0.5040719509124756</v>
+        <v>0.496447741985321</v>
       </c>
       <c r="W129" t="n">
-        <v>0.1778419464826584</v>
+        <v>0.1843305379152298</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.8736941814422607</v>
       </c>
       <c r="V130" t="n">
-        <v>0.5030796527862549</v>
+        <v>0.8848394155502319</v>
       </c>
       <c r="W130" t="n">
-        <v>0.1373551338911057</v>
+        <v>0.0001242162397829816</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.864570140838623</v>
       </c>
       <c r="V131" t="n">
-        <v>0.5413551330566406</v>
+        <v>0.3992223739624023</v>
       </c>
       <c r="W131" t="n">
-        <v>0.1044679433107376</v>
+        <v>0.2165485471487045</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.8708148002624512</v>
       </c>
       <c r="V132" t="n">
-        <v>0.6548136472702026</v>
+        <v>0.5156627297401428</v>
       </c>
       <c r="W132" t="n">
-        <v>0.04665649682283401</v>
+        <v>0.126132994890213</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.9535980224609375</v>
       </c>
       <c r="V133" t="n">
-        <v>0.5607798099517822</v>
+        <v>0.5153745412826538</v>
       </c>
       <c r="W133" t="n">
-        <v>0.1543061435222626</v>
+        <v>0.19203981757164</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8762309551239014</v>
       </c>
       <c r="V134" t="n">
-        <v>0.8119772672653198</v>
+        <v>0.4034628868103027</v>
       </c>
       <c r="W134" t="n">
-        <v>0.004128536209464073</v>
+        <v>0.2235096395015717</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8709797859191895</v>
       </c>
       <c r="V135" t="n">
-        <v>0.4505327641963959</v>
+        <v>0.484507292509079</v>
       </c>
       <c r="W135" t="n">
-        <v>0.1767756938934326</v>
+        <v>0.1493609845638275</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.8654229640960693</v>
       </c>
       <c r="V136" t="n">
-        <v>0.5155050158500671</v>
+        <v>0.8626042604446411</v>
       </c>
       <c r="W136" t="n">
-        <v>0.1224425733089447</v>
+        <v>7.945090146677103e-06</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.9530320167541504</v>
       </c>
       <c r="V137" t="n">
-        <v>0.8059033155441284</v>
+        <v>0.5007877349853516</v>
       </c>
       <c r="W137" t="n">
-        <v>0.02164685539901257</v>
+        <v>0.204524889588356</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.9058260917663574</v>
       </c>
       <c r="V138" t="n">
-        <v>0.466268926858902</v>
+        <v>0.4239808022975922</v>
       </c>
       <c r="W138" t="n">
-        <v>0.1932104974985123</v>
+        <v>0.232174888253212</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.8882400989532471</v>
       </c>
       <c r="V139" t="n">
-        <v>0.381181538105011</v>
+        <v>0.897817075252533</v>
       </c>
       <c r="W139" t="n">
-        <v>0.2571083903312683</v>
+        <v>9.171847341349348e-05</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8628361225128174</v>
       </c>
       <c r="V140" t="n">
-        <v>0.6418135166168213</v>
+        <v>0.8652476668357849</v>
       </c>
       <c r="W140" t="n">
-        <v>0.04885099083185196</v>
+        <v>5.815546046505915e-06</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.931145191192627</v>
       </c>
       <c r="V141" t="n">
-        <v>0.4032191634178162</v>
+        <v>0.4240536689758301</v>
       </c>
       <c r="W141" t="n">
-        <v>0.278705894947052</v>
+        <v>0.2571417987346649</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5357050895690918</v>
       </c>
       <c r="V142" t="n">
-        <v>0.4036073684692383</v>
+        <v>0.5160808563232422</v>
       </c>
       <c r="W142" t="n">
-        <v>0.01744980737566948</v>
+        <v>0.000385110528441146</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5127849578857422</v>
       </c>
       <c r="V143" t="n">
-        <v>0.5140922069549561</v>
+        <v>0.5131322145462036</v>
       </c>
       <c r="W143" t="n">
-        <v>1.708900072117103e-06</v>
+        <v>1.20587188234822e-07</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5200159549713135</v>
       </c>
       <c r="V144" t="n">
-        <v>0.5138214826583862</v>
+        <v>0.8684113621711731</v>
       </c>
       <c r="W144" t="n">
-        <v>3.837148688035086e-05</v>
+        <v>0.1213793605566025</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5192179679870605</v>
       </c>
       <c r="V145" t="n">
-        <v>0.6825319528579712</v>
+        <v>0.4979362189769745</v>
       </c>
       <c r="W145" t="n">
-        <v>0.02667145803570747</v>
+        <v>0.0004529128491412848</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5712299346923828</v>
       </c>
       <c r="V146" t="n">
-        <v>0.4776211678981781</v>
+        <v>0.4031563699245453</v>
       </c>
       <c r="W146" t="n">
-        <v>0.00876260083168745</v>
+        <v>0.02824872359633446</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.543971061706543</v>
       </c>
       <c r="V147" t="n">
-        <v>0.5344752669334412</v>
+        <v>0.5162225365638733</v>
       </c>
       <c r="W147" t="n">
-        <v>9.017012052936479e-05</v>
+        <v>0.0007699806592427194</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5224637985229492</v>
       </c>
       <c r="V148" t="n">
-        <v>0.5041878223419189</v>
+        <v>0.3975178301334381</v>
       </c>
       <c r="W148" t="n">
-        <v>0.0003340113034937531</v>
+        <v>0.0156114948913455</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5186870098114014</v>
       </c>
       <c r="V149" t="n">
-        <v>0.5034441351890564</v>
+        <v>0.5021560788154602</v>
       </c>
       <c r="W149" t="n">
-        <v>0.0002323452208656818</v>
+        <v>0.0002732716675382107</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5229678153991699</v>
       </c>
       <c r="V150" t="n">
-        <v>0.7839112281799316</v>
+        <v>0.8751831650733948</v>
       </c>
       <c r="W150" t="n">
-        <v>0.06809146702289581</v>
+        <v>0.1240556538105011</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5414509773254395</v>
       </c>
       <c r="V151" t="n">
-        <v>0.4780525863170624</v>
+        <v>0.8680620789527893</v>
       </c>
       <c r="W151" t="n">
-        <v>0.004019355867058039</v>
+        <v>0.106674812734127</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5159451961517334</v>
       </c>
       <c r="V152" t="n">
-        <v>0.4776301085948944</v>
+        <v>0.4990925192832947</v>
       </c>
       <c r="W152" t="n">
-        <v>0.001468045986257493</v>
+        <v>0.0002840127272065729</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5153639316558838</v>
       </c>
       <c r="V153" t="n">
-        <v>0.531548023223877</v>
+        <v>0.8837740421295166</v>
       </c>
       <c r="W153" t="n">
-        <v>0.0002619248116388917</v>
+        <v>0.1357260048389435</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5250740051269531</v>
       </c>
       <c r="V154" t="n">
-        <v>0.3507703840732574</v>
+        <v>0.4114280641078949</v>
       </c>
       <c r="W154" t="n">
-        <v>0.03038175217807293</v>
+        <v>0.01291539985686541</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5198521614074707</v>
       </c>
       <c r="V155" t="n">
-        <v>0.3711240291595459</v>
+        <v>0.5162011981010437</v>
       </c>
       <c r="W155" t="n">
-        <v>0.02212005667388439</v>
+        <v>1.33295334308059e-05</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5200920104980469</v>
       </c>
       <c r="V156" t="n">
-        <v>0.5413792133331299</v>
+        <v>0.8720788955688477</v>
       </c>
       <c r="W156" t="n">
-        <v>0.0004531450103968382</v>
+        <v>0.1238947659730911</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.5439369678497314</v>
       </c>
       <c r="V157" t="n">
-        <v>0.514474630355835</v>
+        <v>0.4994457960128784</v>
       </c>
       <c r="W157" t="n">
-        <v>0.0008680293103680015</v>
+        <v>0.001979464432224631</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5180602073669434</v>
       </c>
       <c r="V158" t="n">
-        <v>0.6720939874649048</v>
+        <v>0.5024929046630859</v>
       </c>
       <c r="W158" t="n">
-        <v>0.02372640557587147</v>
+        <v>0.0002423409168841317</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5201480388641357</v>
       </c>
       <c r="V159" t="n">
-        <v>0.4506978392601013</v>
+        <v>0.9036203026771545</v>
       </c>
       <c r="W159" t="n">
-        <v>0.004823330324143171</v>
+        <v>0.1470509767532349</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5098690986633301</v>
       </c>
       <c r="V160" t="n">
-        <v>0.5141499042510986</v>
+        <v>0.4987149238586426</v>
       </c>
       <c r="W160" t="n">
-        <v>1.832529596867971e-05</v>
+        <v>0.0001244156155735254</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5170540809631348</v>
       </c>
       <c r="V161" t="n">
-        <v>0.5747835636138916</v>
+        <v>0.4223687648773193</v>
       </c>
       <c r="W161" t="n">
-        <v>0.003332693129777908</v>
+        <v>0.008965308777987957</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.4286761283874512</v>
       </c>
       <c r="V162" t="n">
-        <v>0.5145879983901978</v>
+        <v>0.8763701319694519</v>
       </c>
       <c r="W162" t="n">
-        <v>0.007380849216133356</v>
+        <v>0.2004299163818359</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3906779289245605</v>
       </c>
       <c r="V163" t="n">
-        <v>0.8098763227462769</v>
+        <v>0.868270218372345</v>
       </c>
       <c r="W163" t="n">
-        <v>0.1757272928953171</v>
+        <v>0.2280943989753723</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.4048030376434326</v>
       </c>
       <c r="V164" t="n">
-        <v>0.5138845443725586</v>
+        <v>0.5161647796630859</v>
       </c>
       <c r="W164" t="n">
-        <v>0.01189877465367317</v>
+        <v>0.01240143738687038</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3938980102539062</v>
       </c>
       <c r="V165" t="n">
-        <v>0.9441746473312378</v>
+        <v>0.5162256360054016</v>
       </c>
       <c r="W165" t="n">
-        <v>0.3028043806552887</v>
+        <v>0.01496404781937599</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.3899369239807129</v>
       </c>
       <c r="V166" t="n">
-        <v>0.5413862466812134</v>
+        <v>0.3972307741641998</v>
       </c>
       <c r="W166" t="n">
-        <v>0.02293689735233784</v>
+        <v>5.320025229593739e-05</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.3906540870666504</v>
       </c>
       <c r="V167" t="n">
-        <v>0.4036880433559418</v>
+        <v>0.3974845707416534</v>
       </c>
       <c r="W167" t="n">
-        <v>0.0001698840205790475</v>
+        <v>4.665550659410655e-05</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.38991379737854</v>
       </c>
       <c r="V168" t="n">
-        <v>0.5144341588020325</v>
+        <v>0.4925777316093445</v>
       </c>
       <c r="W168" t="n">
-        <v>0.01550532039254904</v>
+        <v>0.01053988374769688</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.3932590484619141</v>
       </c>
       <c r="V169" t="n">
-        <v>0.3755414187908173</v>
+        <v>0.5162612199783325</v>
       </c>
       <c r="W169" t="n">
-        <v>0.0003139144100714475</v>
+        <v>0.01512953452765942</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.3979380130767822</v>
       </c>
       <c r="V170" t="n">
-        <v>0.3810720145702362</v>
+        <v>0.8812406659126282</v>
       </c>
       <c r="W170" t="n">
-        <v>0.0002844619157258421</v>
+        <v>0.2335814535617828</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3962500095367432</v>
       </c>
       <c r="V171" t="n">
-        <v>0.8073692321777344</v>
+        <v>0.5255155563354492</v>
       </c>
       <c r="W171" t="n">
-        <v>0.1690190136432648</v>
+        <v>0.0167095810174942</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.4004569053649902</v>
       </c>
       <c r="V172" t="n">
-        <v>0.3808989822864532</v>
+        <v>0.8739449977874756</v>
       </c>
       <c r="W172" t="n">
-        <v>0.000382512342184782</v>
+        <v>0.2241909801959991</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.4443459510803223</v>
       </c>
       <c r="V173" t="n">
-        <v>0.9461758136749268</v>
+        <v>0.4126946628093719</v>
       </c>
       <c r="W173" t="n">
-        <v>0.2518332004547119</v>
+        <v>0.001001804019324481</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.4053378105163574</v>
       </c>
       <c r="V174" t="n">
-        <v>0.4484035670757294</v>
+        <v>0.4232950806617737</v>
       </c>
       <c r="W174" t="n">
-        <v>0.001854659407399595</v>
+        <v>0.0003224635438527912</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.3984899520874023</v>
       </c>
       <c r="V175" t="n">
-        <v>0.7827135324478149</v>
+        <v>0.5008564591407776</v>
       </c>
       <c r="W175" t="n">
-        <v>0.1476277559995651</v>
+        <v>0.01047890167683363</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3937399387359619</v>
       </c>
       <c r="V176" t="n">
-        <v>0.4034280776977539</v>
+        <v>0.4930037558078766</v>
       </c>
       <c r="W176" t="n">
-        <v>9.386003512190655e-05</v>
+        <v>0.009853305295109749</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.409498929977417</v>
       </c>
       <c r="V177" t="n">
-        <v>0.4035950005054474</v>
+        <v>0.4936870336532593</v>
       </c>
       <c r="W177" t="n">
-        <v>3.485638444544747e-05</v>
+        <v>0.007087636739015579</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.4042239189147949</v>
       </c>
       <c r="V178" t="n">
-        <v>0.350784033536911</v>
+        <v>0.3993996679782867</v>
       </c>
       <c r="W178" t="n">
-        <v>0.002855821279808879</v>
+        <v>2.327339643670712e-05</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3954877853393555</v>
       </c>
       <c r="V179" t="n">
-        <v>0.3502950370311737</v>
+        <v>0.3972586095333099</v>
       </c>
       <c r="W179" t="n">
-        <v>0.002042384585365653</v>
+        <v>3.135818360533449e-06</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.3989548683166504</v>
       </c>
       <c r="V180" t="n">
-        <v>0.6429613828659058</v>
+        <v>0.8591548204421997</v>
       </c>
       <c r="W180" t="n">
-        <v>0.05953918024897575</v>
+        <v>0.2117839902639389</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4435088634490967</v>
       </c>
       <c r="V181" t="n">
-        <v>0.672245979309082</v>
+        <v>0.8702388405799866</v>
       </c>
       <c r="W181" t="n">
-        <v>0.05232066661119461</v>
+        <v>0.1820984780788422</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.8759188652038574</v>
       </c>
       <c r="V182" t="n">
-        <v>0.8205782175064087</v>
+        <v>0.397242933511734</v>
       </c>
       <c r="W182" t="n">
-        <v>0.003062587231397629</v>
+        <v>0.2291306406259537</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.9079539775848389</v>
       </c>
       <c r="V183" t="n">
-        <v>0.3507842719554901</v>
+        <v>0.3975178301334381</v>
       </c>
       <c r="W183" t="n">
-        <v>0.3104380369186401</v>
+        <v>0.2605451047420502</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8769569396972656</v>
       </c>
       <c r="V184" t="n">
-        <v>0.5413097143173218</v>
+        <v>0.8590044379234314</v>
       </c>
       <c r="W184" t="n">
-        <v>0.1126590594649315</v>
+        <v>0.0003222923260182142</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.9335319995880127</v>
       </c>
       <c r="V185" t="n">
-        <v>0.5609912872314453</v>
+        <v>0.4979895949363708</v>
       </c>
       <c r="W185" t="n">
-        <v>0.1387865841388702</v>
+        <v>0.189697191119194</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.8695228099822998</v>
       </c>
       <c r="V186" t="n">
-        <v>0.654965877532959</v>
+        <v>0.8905720710754395</v>
       </c>
       <c r="W186" t="n">
-        <v>0.04603467881679535</v>
+        <v>0.0004430713888723403</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.8765580654144287</v>
       </c>
       <c r="V187" t="n">
-        <v>0.8100709915161133</v>
+        <v>0.8722730278968811</v>
       </c>
       <c r="W187" t="n">
-        <v>0.00442053098231554</v>
+        <v>1.836154660850298e-05</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.8621768951416016</v>
       </c>
       <c r="V188" t="n">
-        <v>0.6533832550048828</v>
+        <v>0.4986008107662201</v>
       </c>
       <c r="W188" t="n">
-        <v>0.04359478503465652</v>
+        <v>0.1321875751018524</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.9209358692169189</v>
       </c>
       <c r="V189" t="n">
-        <v>0.5019052028656006</v>
+        <v>0.8624146580696106</v>
       </c>
       <c r="W189" t="n">
-        <v>0.1755867004394531</v>
+        <v>0.003424732247367501</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.8643569946289062</v>
       </c>
       <c r="V190" t="n">
-        <v>0.5619301795959473</v>
+        <v>0.4984599351882935</v>
       </c>
       <c r="W190" t="n">
-        <v>0.09146197885274887</v>
+        <v>0.1338806599378586</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.8807570934295654</v>
       </c>
       <c r="V191" t="n">
-        <v>0.3524310886859894</v>
+        <v>0.3972481489181519</v>
       </c>
       <c r="W191" t="n">
-        <v>0.2791284024715424</v>
+        <v>0.2337809056043625</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.9052441120147705</v>
       </c>
       <c r="V192" t="n">
-        <v>0.3756047487258911</v>
+        <v>0.863368034362793</v>
       </c>
       <c r="W192" t="n">
-        <v>0.2805178463459015</v>
+        <v>0.001753605902194977</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.923954963684082</v>
       </c>
       <c r="V193" t="n">
-        <v>0.4033709764480591</v>
+        <v>0.5153391361236572</v>
       </c>
       <c r="W193" t="n">
-        <v>0.2710076868534088</v>
+        <v>0.166966900229454</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8688209056854248</v>
       </c>
       <c r="V194" t="n">
-        <v>0.5413910150527954</v>
+        <v>0.4115074574947357</v>
       </c>
       <c r="W194" t="n">
-        <v>0.1072103306651115</v>
+        <v>0.2091355919837952</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.8627910614013672</v>
       </c>
       <c r="V195" t="n">
-        <v>0.9424417018890381</v>
+        <v>0.8630298972129822</v>
       </c>
       <c r="W195" t="n">
-        <v>0.006344224326312542</v>
+        <v>5.70425449097911e-08</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.858828067779541</v>
       </c>
       <c r="V196" t="n">
-        <v>0.4484788775444031</v>
+        <v>0.8860856890678406</v>
       </c>
       <c r="W196" t="n">
-        <v>0.1683864593505859</v>
+        <v>0.0007429778925143182</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.92386794090271</v>
       </c>
       <c r="V197" t="n">
-        <v>0.5324540138244629</v>
+        <v>0.8801417946815491</v>
       </c>
       <c r="W197" t="n">
-        <v>0.1532048583030701</v>
+        <v>0.001911975909024477</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.8679449558258057</v>
       </c>
       <c r="V198" t="n">
-        <v>0.4037072956562042</v>
+        <v>0.8640025854110718</v>
       </c>
       <c r="W198" t="n">
-        <v>0.2155166119337082</v>
+        <v>1.554228401801083e-05</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.866894006729126</v>
       </c>
       <c r="V199" t="n">
-        <v>0.5018356442451477</v>
+        <v>0.4009330868721008</v>
       </c>
       <c r="W199" t="n">
-        <v>0.1332676112651825</v>
+        <v>0.217119574546814</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8593921661376953</v>
       </c>
       <c r="V200" t="n">
-        <v>0.3808321058750153</v>
+        <v>0.4991819858551025</v>
       </c>
       <c r="W200" t="n">
-        <v>0.2290197312831879</v>
+        <v>0.1297513693571091</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.8721721172332764</v>
       </c>
       <c r="V201" t="n">
-        <v>0.672019362449646</v>
+        <v>0.4227679371833801</v>
       </c>
       <c r="W201" t="n">
-        <v>0.04006112366914749</v>
+        <v>0.2019641101360321</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5191779136657715</v>
       </c>
       <c r="V202" t="n">
-        <v>0.6824849843978882</v>
+        <v>0.5008833408355713</v>
       </c>
       <c r="W202" t="n">
-        <v>0.02666919864714146</v>
+        <v>0.000334691401803866</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5142409801483154</v>
       </c>
       <c r="V203" t="n">
-        <v>0.5154380798339844</v>
+        <v>0.397271990776062</v>
       </c>
       <c r="W203" t="n">
-        <v>1.433047600585269e-06</v>
+        <v>0.0136817442253232</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5221579074859619</v>
       </c>
       <c r="V204" t="n">
-        <v>0.5017967224121094</v>
+        <v>0.4994064569473267</v>
       </c>
       <c r="W204" t="n">
-        <v>0.0004145778657402843</v>
+        <v>0.0005176285048946738</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5183939933776855</v>
       </c>
       <c r="V205" t="n">
-        <v>0.7837903499603271</v>
+        <v>0.8636634349822998</v>
       </c>
       <c r="W205" t="n">
-        <v>0.07043522596359253</v>
+        <v>0.1192109882831573</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5414669513702393</v>
       </c>
       <c r="V206" t="n">
-        <v>0.6426665782928467</v>
+        <v>0.5067842602729797</v>
       </c>
       <c r="W206" t="n">
-        <v>0.01024136412888765</v>
+        <v>0.001202889019623399</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5205578804016113</v>
       </c>
       <c r="V207" t="n">
-        <v>0.4777990877628326</v>
+        <v>0.5009276866912842</v>
       </c>
       <c r="W207" t="n">
-        <v>0.001828314387239516</v>
+        <v>0.0003853444941341877</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5142138004302979</v>
       </c>
       <c r="V208" t="n">
-        <v>0.3800938129425049</v>
+        <v>0.4121576845645905</v>
       </c>
       <c r="W208" t="n">
-        <v>0.017988171428442</v>
+        <v>0.01041545066982508</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.526324987411499</v>
       </c>
       <c r="V209" t="n">
-        <v>0.4036547243595123</v>
+        <v>0.8728346228599548</v>
       </c>
       <c r="W209" t="n">
-        <v>0.01504799351096153</v>
+        <v>0.1200689300894737</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.518017053604126</v>
       </c>
       <c r="V210" t="n">
-        <v>0.5005732774734497</v>
+        <v>0.399198979139328</v>
       </c>
       <c r="W210" t="n">
-        <v>0.0003042853204533458</v>
+        <v>0.01411773450672626</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5759270191192627</v>
       </c>
       <c r="V211" t="n">
-        <v>0.6568711996078491</v>
+        <v>0.8850011229515076</v>
       </c>
       <c r="W211" t="n">
-        <v>0.006551960483193398</v>
+        <v>0.0955267995595932</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5229740142822266</v>
       </c>
       <c r="V212" t="n">
-        <v>0.3753783702850342</v>
+        <v>0.8776115775108337</v>
       </c>
       <c r="W212" t="n">
-        <v>0.0217844732105732</v>
+        <v>0.1257677972316742</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.523759126663208</v>
       </c>
       <c r="V213" t="n">
-        <v>0.8078914880752563</v>
+        <v>0.5283982157707214</v>
       </c>
       <c r="W213" t="n">
-        <v>0.08073119819164276</v>
+        <v>2.152114757336676e-05</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5207309722900391</v>
       </c>
       <c r="V214" t="n">
-        <v>0.782903790473938</v>
+        <v>0.8692243695259094</v>
       </c>
       <c r="W214" t="n">
-        <v>0.06873458623886108</v>
+        <v>0.1214476451277733</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5223240852355957</v>
       </c>
       <c r="V215" t="n">
-        <v>0.6981637477874756</v>
+        <v>0.8606370091438293</v>
       </c>
       <c r="W215" t="n">
-        <v>0.03091958723962307</v>
+        <v>0.1144556328654289</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5216178894042969</v>
       </c>
       <c r="V216" t="n">
-        <v>0.3507724404335022</v>
+        <v>0.8802587985992432</v>
       </c>
       <c r="W216" t="n">
-        <v>0.02918816730380058</v>
+        <v>0.1286233067512512</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5229220390319824</v>
       </c>
       <c r="V217" t="n">
-        <v>0.3504441678524017</v>
+        <v>0.4121395349502563</v>
       </c>
       <c r="W217" t="n">
-        <v>0.02974861674010754</v>
+        <v>0.01227276306599379</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.525583028793335</v>
       </c>
       <c r="V218" t="n">
-        <v>0.5371879935264587</v>
+        <v>0.4033040106296539</v>
       </c>
       <c r="W218" t="n">
-        <v>0.0001346752105746418</v>
+        <v>0.01495215855538845</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.520596981048584</v>
       </c>
       <c r="V219" t="n">
-        <v>0.5057560205459595</v>
+        <v>0.8796693086624146</v>
       </c>
       <c r="W219" t="n">
-        <v>0.0002202541072620079</v>
+        <v>0.1289329379796982</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5256521701812744</v>
       </c>
       <c r="V220" t="n">
-        <v>0.5885483026504517</v>
+        <v>0.498296320438385</v>
       </c>
       <c r="W220" t="n">
-        <v>0.003955923486500978</v>
+        <v>0.000748342543374747</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5186018943786621</v>
       </c>
       <c r="V221" t="n">
-        <v>0.4662189185619354</v>
+        <v>0.4988654255867004</v>
       </c>
       <c r="W221" t="n">
-        <v>0.002743976190686226</v>
+        <v>0.0003895281988661736</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.4369480609893799</v>
       </c>
       <c r="V222" t="n">
-        <v>0.5316058397293091</v>
+        <v>0.873627245426178</v>
       </c>
       <c r="W222" t="n">
-        <v>0.00896009523421526</v>
+        <v>0.1906887143850327</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.3863978385925293</v>
       </c>
       <c r="V223" t="n">
-        <v>0.5028307437896729</v>
+        <v>0.8615567684173584</v>
       </c>
       <c r="W223" t="n">
-        <v>0.01355662103742361</v>
+        <v>0.2257760018110275</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.3937249183654785</v>
       </c>
       <c r="V224" t="n">
-        <v>0.5041899085044861</v>
+        <v>0.4984055459499359</v>
       </c>
       <c r="W224" t="n">
-        <v>0.01220251433551311</v>
+        <v>0.01095803361386061</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.3911972045898438</v>
       </c>
       <c r="V225" t="n">
-        <v>0.5042273998260498</v>
+        <v>0.4139169752597809</v>
       </c>
       <c r="W225" t="n">
-        <v>0.01277582533657551</v>
+        <v>0.0005161879817023873</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.3935401439666748</v>
       </c>
       <c r="V226" t="n">
-        <v>0.4033866226673126</v>
+        <v>0.397234320640564</v>
       </c>
       <c r="W226" t="n">
-        <v>9.695313929114491e-05</v>
+        <v>1.364694162475644e-05</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.3959310054779053</v>
       </c>
       <c r="V227" t="n">
-        <v>0.4036012589931488</v>
+        <v>0.4867878556251526</v>
       </c>
       <c r="W227" t="n">
-        <v>5.88327893638052e-05</v>
+        <v>0.008254967629909515</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.4145870208740234</v>
       </c>
       <c r="V228" t="n">
-        <v>0.4775792956352234</v>
+        <v>0.4009185135364532</v>
       </c>
       <c r="W228" t="n">
-        <v>0.003968026489019394</v>
+        <v>0.0001868280960479751</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.4043619632720947</v>
       </c>
       <c r="V229" t="n">
-        <v>0.5342543721199036</v>
+        <v>0.8655218482017517</v>
       </c>
       <c r="W229" t="n">
-        <v>0.01687203720211983</v>
+        <v>0.2126684337854385</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.3962569236755371</v>
       </c>
       <c r="V230" t="n">
-        <v>0.3757709860801697</v>
+        <v>0.5094509124755859</v>
       </c>
       <c r="W230" t="n">
-        <v>0.0004196736263111234</v>
+        <v>0.01281287893652916</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.3960988521575928</v>
       </c>
       <c r="V231" t="n">
-        <v>0.9476672410964966</v>
+        <v>0.8994290828704834</v>
       </c>
       <c r="W231" t="n">
-        <v>0.3042276799678802</v>
+        <v>0.2533413171768188</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.3987271785736084</v>
       </c>
       <c r="V232" t="n">
-        <v>0.8001948595046997</v>
+        <v>0.3972318768501282</v>
       </c>
       <c r="W232" t="n">
-        <v>0.1611762940883636</v>
+        <v>2.235927240690216e-06</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.3986289501190186</v>
       </c>
       <c r="V233" t="n">
-        <v>0.4036741256713867</v>
+        <v>0.4034435153007507</v>
       </c>
       <c r="W233" t="n">
-        <v>2.545379720686469e-05</v>
+        <v>2.318003862455953e-05</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.3996450901031494</v>
       </c>
       <c r="V234" t="n">
-        <v>0.3811658322811127</v>
+        <v>0.8737698793411255</v>
       </c>
       <c r="W234" t="n">
-        <v>0.0003414829552639276</v>
+        <v>0.2247943133115768</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.407642126083374</v>
       </c>
       <c r="V235" t="n">
-        <v>0.3503713309764862</v>
+        <v>0.4035423398017883</v>
       </c>
       <c r="W235" t="n">
-        <v>0.003279943950474262</v>
+        <v>1.680824789218605e-05</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.3983259201049805</v>
       </c>
       <c r="V236" t="n">
-        <v>0.3707364797592163</v>
+        <v>0.5457234978675842</v>
       </c>
       <c r="W236" t="n">
-        <v>0.0007611772161908448</v>
+        <v>0.02172604575753212</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.3964540958404541</v>
       </c>
       <c r="V237" t="n">
-        <v>0.3507681787014008</v>
+        <v>0.5014688372612</v>
       </c>
       <c r="W237" t="n">
-        <v>0.002087203087285161</v>
+        <v>0.01102809607982635</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3953571319580078</v>
       </c>
       <c r="V238" t="n">
-        <v>0.8079757690429688</v>
+        <v>0.4025744199752808</v>
       </c>
       <c r="W238" t="n">
-        <v>0.1702541410923004</v>
+        <v>5.208924631006084e-05</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.390984058380127</v>
       </c>
       <c r="V239" t="n">
-        <v>0.5031870007514954</v>
+        <v>0.4986065626144409</v>
       </c>
       <c r="W239" t="n">
-        <v>0.01258950028568506</v>
+        <v>0.01158260367810726</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.3856360912322998</v>
       </c>
       <c r="V240" t="n">
-        <v>0.4506654441356659</v>
+        <v>0.4017811417579651</v>
       </c>
       <c r="W240" t="n">
-        <v>0.004228816833347082</v>
+        <v>0.0002606626658234745</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.3936669826507568</v>
       </c>
       <c r="V241" t="n">
-        <v>0.9478923082351685</v>
+        <v>0.4102038741111755</v>
       </c>
       <c r="W241" t="n">
-        <v>0.3071657121181488</v>
+        <v>0.0002734687877818942</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.8827300071716309</v>
       </c>
       <c r="V242" t="n">
-        <v>0.6904754638671875</v>
+        <v>0.3972589671611786</v>
       </c>
       <c r="W242" t="n">
-        <v>0.03696180880069733</v>
+        <v>0.2356821298599243</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.8892779350280762</v>
       </c>
       <c r="V243" t="n">
-        <v>0.5322068929672241</v>
+        <v>0.8669364452362061</v>
       </c>
       <c r="W243" t="n">
-        <v>0.1274997293949127</v>
+        <v>0.000499142159242183</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.8665170669555664</v>
       </c>
       <c r="V244" t="n">
-        <v>0.4998745322227478</v>
+        <v>0.498136043548584</v>
       </c>
       <c r="W244" t="n">
-        <v>0.1344267427921295</v>
+        <v>0.1357045769691467</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.9148538112640381</v>
       </c>
       <c r="V245" t="n">
-        <v>0.9515811204910278</v>
+        <v>0.4008795022964478</v>
       </c>
       <c r="W245" t="n">
-        <v>0.001348895253613591</v>
+        <v>0.2641696035861969</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.893773078918457</v>
       </c>
       <c r="V246" t="n">
-        <v>0.3507762253284454</v>
+        <v>0.3972643315792084</v>
       </c>
       <c r="W246" t="n">
-        <v>0.2948456108570099</v>
+        <v>0.2465209364891052</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8801841735839844</v>
       </c>
       <c r="V247" t="n">
-        <v>0.654166579246521</v>
+        <v>0.8736257553100586</v>
       </c>
       <c r="W247" t="n">
-        <v>0.05108395218849182</v>
+        <v>4.301284934626892e-05</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.8691630363464355</v>
       </c>
       <c r="V248" t="n">
-        <v>0.7840772867202759</v>
+        <v>0.8748894929885864</v>
       </c>
       <c r="W248" t="n">
-        <v>0.007239584811031818</v>
+        <v>3.279230440966785e-05</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.9303419589996338</v>
       </c>
       <c r="V249" t="n">
-        <v>0.5048280954360962</v>
+        <v>0.8693881034851074</v>
       </c>
       <c r="W249" t="n">
-        <v>0.1810620427131653</v>
+        <v>0.00371537241153419</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.8699700832366943</v>
       </c>
       <c r="V250" t="n">
-        <v>0.9424210786819458</v>
+        <v>0.8669593334197998</v>
       </c>
       <c r="W250" t="n">
-        <v>0.005249146837741137</v>
+        <v>9.064614459930453e-06</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8855090141296387</v>
       </c>
       <c r="V251" t="n">
-        <v>0.8160734176635742</v>
+        <v>0.5161817669868469</v>
       </c>
       <c r="W251" t="n">
-        <v>0.004821301903575659</v>
+        <v>0.1364026218652725</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.8729660511016846</v>
       </c>
       <c r="V252" t="n">
-        <v>0.6971142292022705</v>
+        <v>0.852727472782135</v>
       </c>
       <c r="W252" t="n">
-        <v>0.0309238638728857</v>
+        <v>0.0004096000629942864</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.9419221878051758</v>
       </c>
       <c r="V253" t="n">
-        <v>0.5153118371963501</v>
+        <v>0.4995962679386139</v>
       </c>
       <c r="W253" t="n">
-        <v>0.1819963902235031</v>
+        <v>0.1956522166728973</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.9159348011016846</v>
       </c>
       <c r="V254" t="n">
-        <v>0.6418609619140625</v>
+        <v>0.8779632449150085</v>
       </c>
       <c r="W254" t="n">
-        <v>0.07511647045612335</v>
+        <v>0.001441839034669101</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8725790977478027</v>
       </c>
       <c r="V255" t="n">
-        <v>0.5138216018676758</v>
+        <v>0.4930842220783234</v>
       </c>
       <c r="W255" t="n">
-        <v>0.1287069469690323</v>
+        <v>0.1440163552761078</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.8752100467681885</v>
       </c>
       <c r="V256" t="n">
-        <v>0.3812652230262756</v>
+        <v>0.4974939823150635</v>
       </c>
       <c r="W256" t="n">
-        <v>0.2439814954996109</v>
+        <v>0.1426694244146347</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8813071250915527</v>
       </c>
       <c r="V257" t="n">
-        <v>0.5370340347290039</v>
+        <v>0.5161145925521851</v>
       </c>
       <c r="W257" t="n">
-        <v>0.1185239627957344</v>
+        <v>0.133365586400032</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.8681139945983887</v>
       </c>
       <c r="V258" t="n">
-        <v>0.5413761734962463</v>
+        <v>0.4949204623699188</v>
       </c>
       <c r="W258" t="n">
-        <v>0.1067576035857201</v>
+        <v>0.1392734050750732</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.877877950668335</v>
       </c>
       <c r="V259" t="n">
-        <v>0.9514546394348145</v>
+        <v>0.4966005086898804</v>
       </c>
       <c r="W259" t="n">
-        <v>0.005413528997451067</v>
+        <v>0.1453724950551987</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.8620028495788574</v>
       </c>
       <c r="V260" t="n">
-        <v>0.3507875204086304</v>
+        <v>0.3972374796867371</v>
       </c>
       <c r="W260" t="n">
-        <v>0.2613411247730255</v>
+        <v>0.2160068452358246</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8686950206756592</v>
       </c>
       <c r="V261" t="n">
-        <v>0.7834850549697876</v>
+        <v>0.5403066873550415</v>
       </c>
       <c r="W261" t="n">
-        <v>0.007260738406330347</v>
+        <v>0.107838898897171</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5413699150085449</v>
       </c>
       <c r="V262" t="n">
-        <v>0.4036560952663422</v>
+        <v>0.409474790096283</v>
       </c>
       <c r="W262" t="n">
-        <v>0.01896509528160095</v>
+        <v>0.01739632338285446</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5425310134887695</v>
       </c>
       <c r="V263" t="n">
-        <v>0.9462680816650391</v>
+        <v>0.8870436549186707</v>
       </c>
       <c r="W263" t="n">
-        <v>0.1630036234855652</v>
+        <v>0.1186889633536339</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.523975133895874</v>
       </c>
       <c r="V264" t="n">
-        <v>0.6082247495651245</v>
+        <v>0.4029744565486908</v>
       </c>
       <c r="W264" t="n">
-        <v>0.007097997702658176</v>
+        <v>0.01464116387069225</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5276370048522949</v>
       </c>
       <c r="V265" t="n">
-        <v>0.514564037322998</v>
+        <v>0.3991801738739014</v>
       </c>
       <c r="W265" t="n">
-        <v>0.0001709024800220504</v>
+        <v>0.01650115661323071</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5303268432617188</v>
       </c>
       <c r="V266" t="n">
-        <v>0.8070424795150757</v>
+        <v>0.4033797085285187</v>
       </c>
       <c r="W266" t="n">
-        <v>0.07657154649496078</v>
+        <v>0.0161155741661787</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5253438949584961</v>
       </c>
       <c r="V267" t="n">
-        <v>0.4035888314247131</v>
+        <v>0.3972680568695068</v>
       </c>
       <c r="W267" t="n">
-        <v>0.01482429541647434</v>
+        <v>0.01640341989696026</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5230131149291992</v>
       </c>
       <c r="V268" t="n">
-        <v>0.5342714190483093</v>
+        <v>0.8673561215400696</v>
       </c>
       <c r="W268" t="n">
-        <v>0.0001267494080821052</v>
+        <v>0.1185721084475517</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5263299942016602</v>
       </c>
       <c r="V269" t="n">
-        <v>0.375304102897644</v>
+        <v>0.8693744540214539</v>
       </c>
       <c r="W269" t="n">
-        <v>0.02280882000923157</v>
+        <v>0.1176794990897179</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5215909481048584</v>
       </c>
       <c r="V270" t="n">
-        <v>0.4036735594272614</v>
+        <v>0.3991994261741638</v>
       </c>
       <c r="W270" t="n">
-        <v>0.01390451099723577</v>
+        <v>0.01497968472540379</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5684051513671875</v>
       </c>
       <c r="V271" t="n">
-        <v>0.946087121963501</v>
+        <v>0.8746046423912048</v>
       </c>
       <c r="W271" t="n">
-        <v>0.1426436752080917</v>
+        <v>0.09375812858343124</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5313382148742676</v>
       </c>
       <c r="V272" t="n">
-        <v>0.4036473333835602</v>
+        <v>0.4023184180259705</v>
       </c>
       <c r="W272" t="n">
-        <v>0.01630496047437191</v>
+        <v>0.01664610765874386</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5239222049713135</v>
       </c>
       <c r="V273" t="n">
-        <v>0.9439630508422852</v>
+        <v>0.5159457921981812</v>
       </c>
       <c r="W273" t="n">
-        <v>0.1764343082904816</v>
+        <v>6.362316344166175e-05</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5281331539154053</v>
       </c>
       <c r="V274" t="n">
-        <v>0.8101098537445068</v>
+        <v>0.5160046219825745</v>
       </c>
       <c r="W274" t="n">
-        <v>0.07951086014509201</v>
+        <v>0.0001471012801630422</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5204050540924072</v>
       </c>
       <c r="V275" t="n">
-        <v>0.6410635709762573</v>
+        <v>0.4941871166229248</v>
       </c>
       <c r="W275" t="n">
-        <v>0.01455847732722759</v>
+        <v>0.0006873802631162107</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5621039867401123</v>
       </c>
       <c r="V276" t="n">
-        <v>0.6081980466842651</v>
+        <v>0.8804529905319214</v>
       </c>
       <c r="W276" t="n">
-        <v>0.002124662278220057</v>
+        <v>0.1013460904359818</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5275850296020508</v>
       </c>
       <c r="V277" t="n">
-        <v>0.5137524604797363</v>
+        <v>0.4130620658397675</v>
       </c>
       <c r="W277" t="n">
-        <v>0.0001913399755721912</v>
+        <v>0.01311550941318274</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5216319561004639</v>
       </c>
       <c r="V278" t="n">
-        <v>0.3507875502109528</v>
+        <v>0.3975084722042084</v>
       </c>
       <c r="W278" t="n">
-        <v>0.02918781153857708</v>
+        <v>0.01540663931518793</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5257248878479004</v>
       </c>
       <c r="V279" t="n">
-        <v>0.4032863676548004</v>
+        <v>0.8843038082122803</v>
       </c>
       <c r="W279" t="n">
-        <v>0.01499119121581316</v>
+        <v>0.1285788416862488</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5235288143157959</v>
       </c>
       <c r="V280" t="n">
-        <v>0.5373629331588745</v>
+        <v>0.39923095703125</v>
       </c>
       <c r="W280" t="n">
-        <v>0.0001913828455144539</v>
+        <v>0.01544995699077845</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5267870426177979</v>
       </c>
       <c r="V281" t="n">
-        <v>0.3524288833141327</v>
+        <v>0.4044134020805359</v>
       </c>
       <c r="W281" t="n">
-        <v>0.03040076792240143</v>
+        <v>0.01497530750930309</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4285361766815186</v>
       </c>
       <c r="V282" t="n">
-        <v>0.3869305849075317</v>
+        <v>0.3972471952438354</v>
       </c>
       <c r="W282" t="n">
-        <v>0.001731025287881494</v>
+        <v>0.0009790003532543778</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.4023911952972412</v>
       </c>
       <c r="V283" t="n">
-        <v>0.7835088968276978</v>
+        <v>0.4009502232074738</v>
       </c>
       <c r="W283" t="n">
-        <v>0.1452507078647614</v>
+        <v>2.076400505757192e-06</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.4054138660430908</v>
       </c>
       <c r="V284" t="n">
-        <v>0.6420689821243286</v>
+        <v>0.8644514679908752</v>
       </c>
       <c r="W284" t="n">
-        <v>0.05600564554333687</v>
+        <v>0.2107155174016953</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.4016778469085693</v>
       </c>
       <c r="V285" t="n">
-        <v>0.7828408479690552</v>
+        <v>0.4926191568374634</v>
       </c>
       <c r="W285" t="n">
-        <v>0.1452852338552475</v>
+        <v>0.008270321413874626</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.4031708240509033</v>
       </c>
       <c r="V286" t="n">
-        <v>0.3810511529445648</v>
+        <v>0.5092419385910034</v>
       </c>
       <c r="W286" t="n">
-        <v>0.0004892798606306314</v>
+        <v>0.01125108171254396</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.3992259502410889</v>
       </c>
       <c r="V287" t="n">
-        <v>0.6547068357467651</v>
+        <v>0.411040335893631</v>
       </c>
       <c r="W287" t="n">
-        <v>0.06527048349380493</v>
+        <v>0.0001395797153236344</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.4039618968963623</v>
       </c>
       <c r="V288" t="n">
-        <v>0.5277000665664673</v>
+        <v>0.498749852180481</v>
       </c>
       <c r="W288" t="n">
-        <v>0.01531113497912884</v>
+        <v>0.008984756655991077</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4219129085540771</v>
       </c>
       <c r="V289" t="n">
-        <v>0.5139825344085693</v>
+        <v>0.4994145035743713</v>
       </c>
       <c r="W289" t="n">
-        <v>0.008476816117763519</v>
+        <v>0.006006497424095869</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.3925161361694336</v>
       </c>
       <c r="V290" t="n">
-        <v>0.7832762002944946</v>
+        <v>0.4182522296905518</v>
       </c>
       <c r="W290" t="n">
-        <v>0.1526934206485748</v>
+        <v>0.0006623464869335294</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.3978149890899658</v>
       </c>
       <c r="V291" t="n">
-        <v>0.5605940818786621</v>
+        <v>0.8744216561317444</v>
       </c>
       <c r="W291" t="n">
-        <v>0.02649703249335289</v>
+        <v>0.2271539121866226</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.400439977645874</v>
       </c>
       <c r="V292" t="n">
-        <v>0.5401060581207275</v>
+        <v>0.8631001710891724</v>
       </c>
       <c r="W292" t="n">
-        <v>0.01950661465525627</v>
+        <v>0.2140544503927231</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.393718957901001</v>
       </c>
       <c r="V293" t="n">
-        <v>0.6904977560043335</v>
+        <v>0.8621835708618164</v>
       </c>
       <c r="W293" t="n">
-        <v>0.08807765692472458</v>
+        <v>0.2194590866565704</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.4443869590759277</v>
       </c>
       <c r="V294" t="n">
-        <v>0.6628100872039795</v>
+        <v>0.8704007267951965</v>
       </c>
       <c r="W294" t="n">
-        <v>0.0477086640894413</v>
+        <v>0.1814877241849899</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.3972890377044678</v>
       </c>
       <c r="V295" t="n">
-        <v>0.3706969916820526</v>
+        <v>0.4970982074737549</v>
       </c>
       <c r="W295" t="n">
-        <v>0.0007071369327604771</v>
+        <v>0.00996187049895525</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.4022591114044189</v>
       </c>
       <c r="V296" t="n">
-        <v>0.5606344938278198</v>
+        <v>0.4987954199314117</v>
       </c>
       <c r="W296" t="n">
-        <v>0.02508276142179966</v>
+        <v>0.009319258853793144</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.3985941410064697</v>
       </c>
       <c r="V297" t="n">
-        <v>0.5137119293212891</v>
+        <v>0.4231586754322052</v>
       </c>
       <c r="W297" t="n">
-        <v>0.01325210556387901</v>
+        <v>0.000603416352532804</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.3993470668792725</v>
       </c>
       <c r="V298" t="n">
-        <v>0.541418194770813</v>
+        <v>0.3977302312850952</v>
       </c>
       <c r="W298" t="n">
-        <v>0.02018420584499836</v>
+        <v>2.614157438074471e-06</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.3984549045562744</v>
       </c>
       <c r="V299" t="n">
-        <v>0.350296825170517</v>
+        <v>0.5395189523696899</v>
       </c>
       <c r="W299" t="n">
-        <v>0.002319200662896037</v>
+        <v>0.01989906467497349</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.4491739273071289</v>
       </c>
       <c r="V300" t="n">
-        <v>0.5769187211990356</v>
+        <v>0.4111738204956055</v>
       </c>
       <c r="W300" t="n">
-        <v>0.01631873287260532</v>
+        <v>0.001444008084945381</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.4002280235290527</v>
       </c>
       <c r="V301" t="n">
-        <v>0.5887578725814819</v>
+        <v>0.4032046794891357</v>
       </c>
       <c r="W301" t="n">
-        <v>0.03554350510239601</v>
+        <v>8.860481102601625e-06</v>
       </c>
     </row>
     <row r="302" spans="1:23">
